--- a/data/russian population.xlsx
+++ b/data/russian population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\НР\Desktop\Biztory Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\НР\Desktop\Biztory Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>region</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>Yaroslavl Oblast</t>
+  </si>
+  <si>
+    <t>reg_dist</t>
   </si>
 </sst>
 </file>
@@ -608,27 +611,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -636,7 +643,7 @@
         <v>453376</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -644,7 +651,7 @@
         <v>2350080</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -652,7 +659,7 @@
         <v>798424</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -660,7 +667,7 @@
         <v>1111031</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -668,7 +675,7 @@
         <v>1017514</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -676,7 +683,7 @@
         <v>4063293</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -684,7 +691,7 @@
         <v>1549876</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -692,7 +699,7 @@
         <v>1210982</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -700,7 +707,7 @@
         <v>984511</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -708,7 +715,7 @@
         <v>1378337</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -716,7 +723,7 @@
         <v>2521276</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -724,7 +731,7 @@
         <v>1176689</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -732,7 +739,7 @@
         <v>2333768</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -740,7 +747,7 @@
         <v>3063885</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>

--- a/data/russian population.xlsx
+++ b/data/russian population.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>region</t>
   </si>
@@ -282,9 +282,6 @@
   </si>
   <si>
     <t>Yaroslavl Oblast</t>
-  </si>
-  <si>
-    <t>reg_dist</t>
   </si>
 </sst>
 </file>
@@ -611,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,18 +621,15 @@
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -643,7 +637,7 @@
         <v>453376</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -651,7 +645,7 @@
         <v>2350080</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -659,7 +653,7 @@
         <v>798424</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -667,7 +661,7 @@
         <v>1111031</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -675,7 +669,7 @@
         <v>1017514</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -683,7 +677,7 @@
         <v>4063293</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -691,7 +685,7 @@
         <v>1549876</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -699,7 +693,7 @@
         <v>1210982</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -707,7 +701,7 @@
         <v>984511</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -715,7 +709,7 @@
         <v>1378337</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -723,7 +717,7 @@
         <v>2521276</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -731,7 +725,7 @@
         <v>1176689</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -739,7 +733,7 @@
         <v>2333768</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -747,7 +741,7 @@
         <v>3063885</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
